--- a/database - circanual/GAM/12 knots/Dam -GAM (12 knots)- R-score and p-value -all species.xlsx
+++ b/database - circanual/GAM/12 knots/Dam -GAM (12 knots)- R-score and p-value -all species.xlsx
@@ -460,10 +460,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5378908766621364</v>
+        <v>0.5278945535850212</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2287712287712288</v>
+        <v>0.2377622377622378</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -476,10 +476,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2493406052419852</v>
+        <v>0.3241634854387387</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7132867132867133</v>
+        <v>0.5544455544455544</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -492,10 +492,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5749899350869344</v>
+        <v>0.7830984133206795</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1778221778221778</v>
+        <v>0.01698301698301698</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -508,10 +508,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3705801259067746</v>
+        <v>0.3333268819296605</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5344655344655345</v>
+        <v>0.6463536463536463</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -524,10 +524,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.738765612739667</v>
+        <v>0.6011246622666819</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02797202797202797</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -540,10 +540,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4251396232831655</v>
+        <v>0.3504337442990695</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4405594405594406</v>
+        <v>0.6043956043956044</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5756807951610262</v>
+        <v>0.3215879017951535</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1788211788211788</v>
+        <v>0.6653346653346653</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -572,10 +572,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6559968346099085</v>
+        <v>0.2709658617586649</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0999000999000999</v>
+        <v>0.7762237762237763</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6081133036608197</v>
+        <v>0.6081133036608199</v>
       </c>
       <c r="C10" t="n">
         <v>0.1258741258741259</v>
@@ -604,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5958863850338233</v>
+        <v>0.5958863850338221</v>
       </c>
       <c r="C11" t="n">
         <v>0.1508491508491508</v>
@@ -620,10 +620,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.257345731870349</v>
+        <v>0.4593998443640781</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6173826173826173</v>
+        <v>0.3926073926073926</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -636,10 +636,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2843173054688671</v>
+        <v>0.5727071055899479</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7522477522477522</v>
+        <v>0.2067932067932068</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4829597203894586</v>
+        <v>0.482959720389459</v>
       </c>
       <c r="C14" t="n">
         <v>0.3176823176823177</v>
@@ -668,10 +668,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7945454103172739</v>
+        <v>0.7597510384536622</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01598401598401598</v>
+        <v>0.02497502497502498</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6398885857709002</v>
+        <v>0.6398885857709007</v>
       </c>
       <c r="C16" t="n">
         <v>0.09490509490509491</v>
@@ -700,10 +700,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4441203402440217</v>
+        <v>0.5617761167884867</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4525474525474525</v>
+        <v>0.1698301698301698</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3637994204962088</v>
+        <v>0.3637994204962095</v>
       </c>
       <c r="C18" t="n">
         <v>0.5594405594405595</v>
@@ -732,10 +732,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2846772023860786</v>
+        <v>0.4707864774165996</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7582417582417582</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
         <v>8</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4039262075875871</v>
+        <v>0.4691100112816526</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4935064935064935</v>
+        <v>0.3346653346653347</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -780,10 +780,10 @@
         <v>9</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4194174924000986</v>
+        <v>0.5047420232268646</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.2967032967032967</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -796,10 +796,10 @@
         <v>10</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5585918866183078</v>
+        <v>0.4937249697421511</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2057942057942058</v>
+        <v>0.2997002997002997</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -812,10 +812,10 @@
         <v>11</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7679339441970252</v>
+        <v>0.6037281859643666</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01798201798201798</v>
+        <v>0.1238761238761239</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -828,10 +828,10 @@
         <v>12</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6299460339564353</v>
+        <v>0.5891752722573366</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1028971028971029</v>
+        <v>0.1528471528471528</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5034798100292539</v>
+        <v>0.5034798100292551</v>
       </c>
       <c r="C26" t="n">
         <v>0.2947052947052947</v>
@@ -876,10 +876,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9363336712248187</v>
+        <v>0.5295063717528554</v>
       </c>
       <c r="C28" t="n">
-        <v>0.000999000999000999</v>
+        <v>0.2417582417582418</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -892,10 +892,10 @@
         <v>4</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6603222342696895</v>
+        <v>0.8148625887830923</v>
       </c>
       <c r="C29" t="n">
-        <v>0.08091908091908091</v>
+        <v>0.01198801198801199</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -908,10 +908,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="n">
-        <v>0.3170149743528797</v>
+        <v>0.4223162274875372</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6893106893106893</v>
+        <v>0.4735264735264735</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>6</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4734014545646643</v>
+        <v>0.4734014545646646</v>
       </c>
       <c r="C31" t="n">
         <v>0.3436563436563437</v>
@@ -972,10 +972,10 @@
         <v>9</v>
       </c>
       <c r="B34" t="n">
-        <v>0.876970268341425</v>
+        <v>0.8717513754249493</v>
       </c>
       <c r="C34" t="n">
-        <v>0.001998001998001998</v>
+        <v>0.002997002997002997</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -988,10 +988,10 @@
         <v>10</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4934095733867072</v>
+        <v>0.6634176241789216</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.07192807192807193</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1004,10 +1004,10 @@
         <v>11</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7328528650525056</v>
+        <v>0.6481881251101482</v>
       </c>
       <c r="C36" t="n">
-        <v>0.04195804195804196</v>
+        <v>0.1178821178821179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>12</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5188292757171198</v>
+        <v>0.5188292757171209</v>
       </c>
       <c r="C37" t="n">
         <v>0.2497502497502498</v>
@@ -1036,10 +1036,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8822782653792502</v>
+        <v>0.7740336051596907</v>
       </c>
       <c r="C38" t="n">
-        <v>0.001998001998001998</v>
+        <v>0.01898101898101898</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1052,10 +1052,10 @@
         <v>2</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8356531186084403</v>
+        <v>0.8728386380078637</v>
       </c>
       <c r="C39" t="n">
-        <v>0.007992007992007992</v>
+        <v>0.000999000999000999</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>3</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7342884653077941</v>
+        <v>0.7287502879890595</v>
       </c>
       <c r="C40" t="n">
         <v>0.04595404595404595</v>
@@ -1084,10 +1084,10 @@
         <v>4</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8409173198135076</v>
+        <v>0.8798788810186854</v>
       </c>
       <c r="C41" t="n">
-        <v>0.004995004995004995</v>
+        <v>0.000999000999000999</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1100,10 +1100,10 @@
         <v>5</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7211742831791117</v>
+        <v>0.632318498264145</v>
       </c>
       <c r="C42" t="n">
-        <v>0.03196803196803197</v>
+        <v>0.0899100899100899</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1116,10 +1116,10 @@
         <v>6</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7130677028830967</v>
+        <v>0.6944933929770156</v>
       </c>
       <c r="C43" t="n">
-        <v>0.03196803196803197</v>
+        <v>0.04795204795204795</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1132,10 +1132,10 @@
         <v>7</v>
       </c>
       <c r="B44" t="n">
-        <v>0.7513312893866397</v>
+        <v>0.7933689860955185</v>
       </c>
       <c r="C44" t="n">
-        <v>0.02197802197802198</v>
+        <v>0.008991008991008992</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1148,10 +1148,10 @@
         <v>8</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8094002939489864</v>
+        <v>0.7256430583295138</v>
       </c>
       <c r="C45" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.03696303696303696</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1164,10 +1164,10 @@
         <v>9</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9038106127160278</v>
+        <v>0.9522183190508233</v>
       </c>
       <c r="C46" t="n">
-        <v>0.001998001998001998</v>
+        <v>0.000999000999000999</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
         <v>10</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8737204103512328</v>
+        <v>0.9486857635672256</v>
       </c>
       <c r="C47" t="n">
-        <v>0.005994005994005994</v>
+        <v>0.000999000999000999</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1196,10 +1196,10 @@
         <v>11</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6171528356510687</v>
+        <v>0.7575191552169317</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1118881118881119</v>
+        <v>0.01598401598401598</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1212,10 +1212,10 @@
         <v>12</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7731042971489082</v>
+        <v>0.9135961173870518</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01598401598401598</v>
+        <v>0.000999000999000999</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1228,10 +1228,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6623858964548442</v>
+        <v>0.7555626176842475</v>
       </c>
       <c r="C50" t="n">
-        <v>0.07092907092907093</v>
+        <v>0.01598401598401598</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8820470059371477</v>
+        <v>0.882047005937148</v>
       </c>
       <c r="C51" t="n">
         <v>0.000999000999000999</v>
@@ -1260,10 +1260,10 @@
         <v>3</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6723642839243336</v>
+        <v>0.874965130920871</v>
       </c>
       <c r="C52" t="n">
-        <v>0.07392607392607392</v>
+        <v>0.004995004995004995</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1276,10 +1276,10 @@
         <v>4</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4865718657295612</v>
+        <v>0.5495889039651838</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3256743256743257</v>
+        <v>0.2147852147852148</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8135221400566375</v>
+        <v>0.8135221400566373</v>
       </c>
       <c r="C54" t="n">
         <v>0.003996003996003996</v>
@@ -1308,7 +1308,7 @@
         <v>6</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7571015473334004</v>
+        <v>0.757101547333398</v>
       </c>
       <c r="C55" t="n">
         <v>0.02797202797202797</v>
@@ -1324,10 +1324,10 @@
         <v>7</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6943285251818637</v>
+        <v>0.5202275944655355</v>
       </c>
       <c r="C56" t="n">
-        <v>0.04295704295704296</v>
+        <v>0.2617382617382618</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8951455357125807</v>
+        <v>0.8951455357125815</v>
       </c>
       <c r="C57" t="n">
         <v>0.001998001998001998</v>
@@ -1356,10 +1356,10 @@
         <v>9</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8025848450013811</v>
+        <v>0.7601904006355101</v>
       </c>
       <c r="C58" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.01798201798201798</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1372,10 +1372,10 @@
         <v>10</v>
       </c>
       <c r="B59" t="n">
-        <v>0.591807410137956</v>
+        <v>0.8360256018939853</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1408591408591409</v>
+        <v>0.001998001998001998</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
         <v>11</v>
       </c>
       <c r="B60" t="n">
-        <v>0.7982192783657058</v>
+        <v>0.6989421120097323</v>
       </c>
       <c r="C60" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>12</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9099033515275979</v>
+        <v>0.8906086433582022</v>
       </c>
       <c r="C61" t="n">
         <v>0.000999000999000999</v>
@@ -1420,10 +1420,10 @@
         <v>1</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6222673830203463</v>
+        <v>0.7341159061411184</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1148851148851149</v>
+        <v>0.03996003996003996</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1436,10 +1436,10 @@
         <v>2</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9481146243076861</v>
+        <v>0.6149630544772521</v>
       </c>
       <c r="C63" t="n">
-        <v>0.000999000999000999</v>
+        <v>0.1208791208791209</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1452,10 +1452,10 @@
         <v>3</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5276145755913788</v>
+        <v>0.8599818161055917</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2567432567432568</v>
+        <v>0.004995004995004995</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1468,10 +1468,10 @@
         <v>4</v>
       </c>
       <c r="B65" t="n">
-        <v>0.561348247231334</v>
+        <v>0.6809197588015103</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1868131868131868</v>
+        <v>0.05394605394605394</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1484,10 +1484,10 @@
         <v>5</v>
       </c>
       <c r="B66" t="n">
-        <v>0.7407527085971424</v>
+        <v>0.4967120550836128</v>
       </c>
       <c r="C66" t="n">
-        <v>0.03496503496503497</v>
+        <v>0.2797202797202797</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1500,10 +1500,10 @@
         <v>6</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7925505625724736</v>
+        <v>0.8334346804416544</v>
       </c>
       <c r="C67" t="n">
-        <v>0.01698301698301698</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1516,10 +1516,10 @@
         <v>7</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6995150558148135</v>
+        <v>0.7619803678087422</v>
       </c>
       <c r="C68" t="n">
-        <v>0.05294705294705294</v>
+        <v>0.01798201798201798</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1532,10 +1532,10 @@
         <v>8</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7038412388301161</v>
+        <v>0.8406793663009141</v>
       </c>
       <c r="C69" t="n">
-        <v>0.04795204795204795</v>
+        <v>0.004995004995004995</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1548,10 +1548,10 @@
         <v>9</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7825437489701351</v>
+        <v>0.8694070663434822</v>
       </c>
       <c r="C70" t="n">
-        <v>0.01398601398601399</v>
+        <v>0.002997002997002997</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1564,10 +1564,10 @@
         <v>10</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8662706041010096</v>
+        <v>0.8492307289233043</v>
       </c>
       <c r="C71" t="n">
-        <v>0.000999000999000999</v>
+        <v>0.002997002997002997</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1580,10 +1580,10 @@
         <v>11</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7849947571835063</v>
+        <v>0.8579464631826299</v>
       </c>
       <c r="C72" t="n">
-        <v>0.02297702297702298</v>
+        <v>0.005994005994005994</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
         <v>12</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8299984153979544</v>
+        <v>0.6034322775087315</v>
       </c>
       <c r="C73" t="n">
-        <v>0.004995004995004995</v>
+        <v>0.1448551448551449</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
